--- a/translation/xlsx/_tsum_026a.xlsx
+++ b/translation/xlsx/_tsum_026a.xlsx
@@ -13132,7 +13132,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="6.25"/>
+    <col customWidth="1" min="2" max="2" width="19.63"/>
     <col customWidth="1" min="3" max="3" width="0.38"/>
     <col customWidth="1" min="4" max="4" width="76.75"/>
     <col customWidth="1" min="6" max="6" width="12.0"/>
